--- a/OpsAndMats/M258A.xlsx
+++ b/OpsAndMats/M258A.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3575B2-35CD-4DEC-B4E8-25C85C1599B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -779,8 +785,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +849,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -889,7 +903,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,9 +935,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,6 +987,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1130,14 +1180,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1434,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="S4">
-        <v>1.188</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="T4" t="s">
         <v>199</v>
@@ -1517,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1600,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1683,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1766,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1932,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2098,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2181,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2264,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2430,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2513,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2596,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2679,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2762,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2797,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="s">
         <v>199</v>
       </c>
       <c r="U20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2845,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2928,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3011,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3094,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3177,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3260,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3343,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3426,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3509,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3592,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3675,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3758,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3841,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3924,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4007,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4090,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -4173,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4256,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -4339,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -4422,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -4505,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -4588,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4671,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -4754,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -4837,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -4920,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -5003,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -5086,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -5169,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -5252,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5335,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -5418,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -5501,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5584,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5667,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5750,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -5833,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5916,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -5999,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -6082,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -6165,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6248,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6331,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -6414,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6497,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6580,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6663,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -6746,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6829,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -6912,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -6995,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -7078,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -7161,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -7244,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -7327,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -7410,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -7493,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -7576,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -7659,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -7742,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -7825,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -7908,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -7991,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -8074,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -8157,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -8240,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -8329,14 +8381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8485,7 +8537,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -8595,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -8705,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -8815,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8925,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9035,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -9145,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -9255,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -9365,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9475,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9585,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -9695,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9805,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -9915,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -10025,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -10135,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -10245,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -10355,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -10465,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -10575,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -10685,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -10795,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -10905,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -11015,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -11125,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -11235,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -11345,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -11455,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -11565,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -11675,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -11785,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -11895,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -12005,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -12115,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -12225,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -12335,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -12445,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -12555,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -12665,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -12775,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -12885,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -12995,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -13105,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -13215,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -13325,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -13435,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -13545,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -13655,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -13765,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -13875,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -13985,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -14095,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -14205,7 +14257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -14315,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -14425,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -14535,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -14645,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -14755,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -14865,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -14975,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -15085,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -15195,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -15305,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -15415,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:49">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -15525,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:49">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -15635,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:49">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -15745,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:49">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -15855,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:49">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -15965,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:49">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -16075,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:49">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -16185,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:49">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -16295,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:49">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -16405,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:49">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -16515,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:49">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>69</v>
       </c>

--- a/OpsAndMats/M258A.xlsx
+++ b/OpsAndMats/M258A.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3575B2-35CD-4DEC-B4E8-25C85C1599B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -332,7 +326,7 @@
     <t>9816001</t>
   </si>
   <si>
-    <t>9070400-2</t>
+    <t>9900004</t>
   </si>
   <si>
     <t>3703501</t>
@@ -479,7 +473,7 @@
     <t>Nickel Plating, Electroless</t>
   </si>
   <si>
-    <t>1/4 x 4 #304 St.Stl. True Bar</t>
+    <t>St. Stl. Plate, 304, Prec. Ground…</t>
   </si>
   <si>
     <t>1/2-13, St. Stl. threaded rod</t>
@@ -785,8 +779,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,14 +843,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -903,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,27 +921,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,24 +955,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1180,16 +1130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1403,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1486,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1521,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="S4">
-        <v>1.1879999999999999</v>
+        <v>1.188</v>
       </c>
       <c r="T4" t="s">
         <v>199</v>
@@ -1569,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1652,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1735,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1818,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1853,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="S8">
-        <v>5.375</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s">
         <v>199</v>
       </c>
       <c r="U8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1901,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2067,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2150,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2233,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2316,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2399,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2565,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2648,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2731,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2980,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3063,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3146,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3229,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3312,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3395,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3478,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3561,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3644,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3727,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3810,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3893,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3976,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4059,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4142,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -4225,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4308,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -4391,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -4474,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -4557,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -4640,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4723,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -4806,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -4889,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -4972,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -5055,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -5138,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -5221,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -5304,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5387,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -5470,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -5553,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5636,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5719,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5802,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -5885,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5968,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -6051,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -6134,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -6217,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6300,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6383,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -6466,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6549,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6632,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6715,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -6798,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6881,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -6964,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7047,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -7130,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -7213,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -7296,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -7379,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -7462,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -7545,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -7628,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -7711,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -7794,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -7877,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -7960,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -8043,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -8126,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -8209,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -8292,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -8381,14 +8329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8537,7 +8485,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -8647,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -8757,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -8867,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8977,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9087,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -9197,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -9307,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -9417,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -9527,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9637,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -9747,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9857,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -9967,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -10077,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -10187,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -10297,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -10407,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -10517,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -10627,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -10737,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -10847,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -10957,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -11067,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -11177,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -11287,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -11397,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -11507,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -11617,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -11727,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -11837,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -11947,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -12057,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -12167,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -12277,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -12387,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -12497,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -12607,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -12717,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -12827,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -12937,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -13047,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -13157,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -13267,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -13377,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -13487,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -13597,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -13707,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -13817,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -13927,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -14037,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -14147,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -14257,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -14367,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -14477,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -14587,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -14697,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -14807,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -14917,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -15027,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -15137,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -15247,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -15357,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -15467,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -15577,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -15687,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -15797,7 +15745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -15907,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -16017,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -16127,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -16237,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -16347,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -16457,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -16567,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49">
       <c r="A75" t="s">
         <v>69</v>
       </c>

--- a/OpsAndMats/M258A.xlsx
+++ b/OpsAndMats/M258A.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="255">
   <si>
     <t>Item</t>
   </si>
@@ -227,7 +227,13 @@
     <t>M258A-2</t>
   </si>
   <si>
-    <t>WHEEL MTG. BRACKETS  MOD. 258A SUPPORT …</t>
+    <t>Wheel mtg. bracket  pc. 1</t>
+  </si>
+  <si>
+    <t>Wheel mtg. bracket  pc. 2</t>
+  </si>
+  <si>
+    <t>Wheel mtg. bracket  pc. 3</t>
   </si>
   <si>
     <t>SUPPORT PEDESTAL PLATFORM  MOD. 258A SU…</t>
@@ -242,7 +248,7 @@
     <t>CONTROL DRIVE BLOCK  MOD. 258A SUPPORT …</t>
   </si>
   <si>
-    <t>Special 18-8 St. Stl. Studs</t>
+    <t>Threaded rod - 2.4375"</t>
   </si>
   <si>
     <t>CONTROL KNOB FOR MOD. 258A SUPPORT PEDE…</t>
@@ -1279,16 +1285,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1306,10 +1312,10 @@
         <v>0.625</v>
       </c>
       <c r="T2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1362,16 +1368,16 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1389,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1439,22 +1445,22 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1472,10 +1478,10 @@
         <v>1.188</v>
       </c>
       <c r="T4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1522,22 +1528,22 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1555,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1605,22 +1611,22 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1638,10 +1644,10 @@
         <v>2.75</v>
       </c>
       <c r="T6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1688,22 +1694,22 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1721,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1771,22 +1777,22 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1804,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1854,22 +1860,22 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1887,10 +1893,10 @@
         <v>2.73</v>
       </c>
       <c r="T9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1937,22 +1943,22 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1970,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2020,22 +2026,22 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2053,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2103,22 +2109,22 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2136,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2186,22 +2192,22 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2219,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2269,22 +2275,22 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2302,10 +2308,10 @@
         <v>1.605</v>
       </c>
       <c r="T14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2352,22 +2358,22 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2385,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2435,22 +2441,22 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2468,10 +2474,10 @@
         <v>2.5</v>
       </c>
       <c r="T16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2518,22 +2524,22 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2551,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2601,22 +2607,22 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2634,10 +2640,10 @@
         <v>0.875</v>
       </c>
       <c r="T18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2684,22 +2690,22 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2717,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2767,22 +2773,22 @@
         <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2800,10 +2806,10 @@
         <v>1.5</v>
       </c>
       <c r="T20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2850,22 +2856,22 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2883,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2933,22 +2939,22 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2966,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3016,22 +3022,22 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3049,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3099,22 +3105,22 @@
         <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3132,10 +3138,10 @@
         <v>3.25</v>
       </c>
       <c r="T24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3182,22 +3188,22 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3215,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3265,22 +3271,22 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3298,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3348,22 +3354,22 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3381,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3431,22 +3437,22 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3464,10 +3470,10 @@
         <v>0.375</v>
       </c>
       <c r="T28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3514,22 +3520,22 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
         <v>59</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3547,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3597,22 +3603,22 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3630,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3680,22 +3686,22 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3713,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3763,22 +3769,22 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3796,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="T32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3846,22 +3852,22 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3879,10 +3885,10 @@
         <v>1.75</v>
       </c>
       <c r="T33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3929,22 +3935,22 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3962,10 +3968,10 @@
         <v>0.375</v>
       </c>
       <c r="T34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -4012,22 +4018,22 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4045,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4095,22 +4101,22 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4128,10 +4134,10 @@
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4178,22 +4184,22 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4211,10 +4217,10 @@
         <v>1.157</v>
       </c>
       <c r="T37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4261,16 +4267,16 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I38" t="s">
         <v>43</v>
@@ -4294,10 +4300,10 @@
         <v>2</v>
       </c>
       <c r="T38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4344,22 +4350,22 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I39" t="s">
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4377,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4427,22 +4433,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4460,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4510,22 +4516,22 @@
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I41" t="s">
         <v>48</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4543,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4593,22 +4599,22 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I42" t="s">
         <v>49</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4626,10 +4632,10 @@
         <v>4</v>
       </c>
       <c r="T42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4676,22 +4682,22 @@
         <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
         <v>50</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -4709,10 +4715,10 @@
         <v>6</v>
       </c>
       <c r="T43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4759,22 +4765,22 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I44" t="s">
         <v>51</v>
       </c>
       <c r="J44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4792,10 +4798,10 @@
         <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4842,22 +4848,22 @@
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I45" t="s">
         <v>52</v>
       </c>
       <c r="J45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4875,10 +4881,10 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4925,22 +4931,22 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I46" t="s">
         <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -4958,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -5008,22 +5014,22 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
         <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -5041,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5091,22 +5097,22 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K48">
         <v>11</v>
@@ -5124,10 +5130,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5174,22 +5180,22 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I49" t="s">
         <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K49">
         <v>12</v>
@@ -5207,10 +5213,10 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5257,22 +5263,22 @@
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I50" t="s">
         <v>56</v>
       </c>
       <c r="J50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K50">
         <v>13</v>
@@ -5290,10 +5296,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5340,22 +5346,22 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I51" t="s">
         <v>57</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K51">
         <v>14</v>
@@ -5373,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5423,22 +5429,22 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K52">
         <v>15</v>
@@ -5456,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5506,22 +5512,22 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K53">
         <v>16</v>
@@ -5539,10 +5545,10 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5589,22 +5595,22 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I54" t="s">
         <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K54">
         <v>17</v>
@@ -5622,10 +5628,10 @@
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5672,22 +5678,22 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55">
         <v>18</v>
@@ -5705,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5755,22 +5761,22 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I56" t="s">
         <v>63</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56">
         <v>19</v>
@@ -5788,10 +5794,10 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5838,22 +5844,22 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
         <v>64</v>
       </c>
       <c r="J57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K57">
         <v>20</v>
@@ -5871,10 +5877,10 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5921,22 +5927,22 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I58" t="s">
         <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58">
         <v>21</v>
@@ -5954,10 +5960,10 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -6004,22 +6010,22 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
         <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59">
         <v>22</v>
@@ -6037,10 +6043,10 @@
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -6087,22 +6093,22 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K60">
         <v>23</v>
@@ -6120,10 +6126,10 @@
         <v>2</v>
       </c>
       <c r="T60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U60" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -6170,22 +6176,22 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K61">
         <v>24</v>
@@ -6203,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6253,22 +6259,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K62">
         <v>25</v>
@@ -6286,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6336,22 +6342,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K63">
         <v>26</v>
@@ -6369,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6419,22 +6425,22 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K64">
         <v>27</v>
@@ -6452,10 +6458,10 @@
         <v>2</v>
       </c>
       <c r="T64" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6502,22 +6508,22 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K65">
         <v>28</v>
@@ -6535,10 +6541,10 @@
         <v>2</v>
       </c>
       <c r="T65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6585,22 +6591,22 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K66">
         <v>29</v>
@@ -6618,10 +6624,10 @@
         <v>2</v>
       </c>
       <c r="T66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6668,22 +6674,22 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K67">
         <v>30</v>
@@ -6701,10 +6707,10 @@
         <v>2</v>
       </c>
       <c r="T67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6751,22 +6757,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H68" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K68">
         <v>31</v>
@@ -6784,10 +6790,10 @@
         <v>2</v>
       </c>
       <c r="T68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6834,22 +6840,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K69">
         <v>32</v>
@@ -6867,10 +6873,10 @@
         <v>7</v>
       </c>
       <c r="T69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6917,22 +6923,22 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K70">
         <v>33</v>
@@ -6950,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="T70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -7000,22 +7006,22 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K71">
         <v>34</v>
@@ -7033,10 +7039,10 @@
         <v>6</v>
       </c>
       <c r="T71" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7083,22 +7089,22 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K72">
         <v>35</v>
@@ -7116,10 +7122,10 @@
         <v>2</v>
       </c>
       <c r="T72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -7166,22 +7172,22 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K73">
         <v>36</v>
@@ -7199,10 +7205,10 @@
         <v>4</v>
       </c>
       <c r="T73" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -7249,22 +7255,22 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K74">
         <v>37</v>
@@ -7282,10 +7288,10 @@
         <v>1</v>
       </c>
       <c r="T74" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -7332,22 +7338,22 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K75">
         <v>38</v>
@@ -7365,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -7415,22 +7421,22 @@
         <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K76">
         <v>39</v>
@@ -7448,10 +7454,10 @@
         <v>4</v>
       </c>
       <c r="T76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -7498,22 +7504,22 @@
         <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K77">
         <v>40</v>
@@ -7531,10 +7537,10 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -7581,22 +7587,22 @@
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K78">
         <v>41</v>
@@ -7614,10 +7620,10 @@
         <v>3</v>
       </c>
       <c r="T78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -7664,22 +7670,22 @@
         <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I79" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K79">
         <v>42</v>
@@ -7697,10 +7703,10 @@
         <v>2</v>
       </c>
       <c r="T79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U79" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -7747,22 +7753,22 @@
         <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I80" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J80" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K80">
         <v>43</v>
@@ -7780,10 +7786,10 @@
         <v>1</v>
       </c>
       <c r="T80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -7830,22 +7836,22 @@
         <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K81">
         <v>44</v>
@@ -7863,10 +7869,10 @@
         <v>4</v>
       </c>
       <c r="T81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -7913,22 +7919,22 @@
         <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K82">
         <v>45</v>
@@ -7946,10 +7952,10 @@
         <v>2</v>
       </c>
       <c r="T82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -7996,22 +8002,22 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83">
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I83" t="s">
         <v>67</v>
       </c>
       <c r="J83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -8029,10 +8035,10 @@
         <v>1</v>
       </c>
       <c r="T83" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -8079,22 +8085,22 @@
         <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84">
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I84" t="s">
         <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8112,10 +8118,10 @@
         <v>4</v>
       </c>
       <c r="T84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -8162,22 +8168,22 @@
         <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I85" t="s">
         <v>67</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8195,10 +8201,10 @@
         <v>1</v>
       </c>
       <c r="T85" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -8245,22 +8251,22 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I86" t="s">
         <v>60</v>
       </c>
       <c r="J86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8278,10 +8284,10 @@
         <v>4</v>
       </c>
       <c r="T86" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -8362,61 +8368,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -8425,64 +8431,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -8496,28 +8502,28 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -8550,28 +8556,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -8606,28 +8612,28 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -8660,28 +8666,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -8716,28 +8722,28 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -8770,28 +8776,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -8826,28 +8832,28 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -8880,28 +8886,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -8930,34 +8936,34 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -8990,28 +8996,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -9040,34 +9046,34 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -9100,28 +9106,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -9150,34 +9156,34 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -9210,28 +9216,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -9260,34 +9266,34 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -9320,28 +9326,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -9370,34 +9376,34 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -9430,28 +9436,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -9480,34 +9486,34 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -9540,28 +9546,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -9590,34 +9596,34 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -9650,28 +9656,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -9700,34 +9706,34 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -9760,28 +9766,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -9810,34 +9816,34 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -9870,28 +9876,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -9920,34 +9926,34 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -9980,28 +9986,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -10030,34 +10036,34 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -10090,28 +10096,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -10140,34 +10146,34 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -10200,28 +10206,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -10250,34 +10256,34 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -10310,28 +10316,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -10360,34 +10366,34 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -10420,28 +10426,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -10470,34 +10476,34 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -10530,28 +10536,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -10580,34 +10586,34 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -10640,28 +10646,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -10690,34 +10696,34 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -10750,28 +10756,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -10800,34 +10806,34 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -10860,28 +10866,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -10910,34 +10916,34 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -10970,28 +10976,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -11020,34 +11026,34 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -11080,28 +11086,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -11130,34 +11136,34 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -11190,28 +11196,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH26" t="s">
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -11240,34 +11246,34 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -11300,28 +11306,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH27" t="s">
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -11350,34 +11356,34 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -11410,28 +11416,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH28" t="s">
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -11460,34 +11466,34 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -11520,28 +11526,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH29" t="s">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -11570,34 +11576,34 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -11630,28 +11636,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH30" t="s">
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -11680,34 +11686,34 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P31">
         <v>0.5</v>
@@ -11740,28 +11746,28 @@
         <v>1</v>
       </c>
       <c r="AE31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH31" t="s">
         <v>0</v>
       </c>
       <c r="AI31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -11790,34 +11796,34 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P32">
         <v>0.5</v>
@@ -11850,28 +11856,28 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH32" t="s">
         <v>0</v>
       </c>
       <c r="AI32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -11900,34 +11906,34 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P33">
         <v>0.5</v>
@@ -11960,28 +11966,28 @@
         <v>1</v>
       </c>
       <c r="AE33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH33" t="s">
         <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -12010,34 +12016,34 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P34">
         <v>0.5</v>
@@ -12070,28 +12076,28 @@
         <v>1</v>
       </c>
       <c r="AE34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH34" t="s">
         <v>0</v>
       </c>
       <c r="AI34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -12120,34 +12126,34 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35">
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P35">
         <v>0.5</v>
@@ -12180,28 +12186,28 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH35" t="s">
         <v>0</v>
       </c>
       <c r="AI35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -12230,34 +12236,34 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P36">
         <v>0.5</v>
@@ -12290,28 +12296,28 @@
         <v>1</v>
       </c>
       <c r="AE36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH36" t="s">
         <v>0</v>
       </c>
       <c r="AI36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -12340,34 +12346,34 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37">
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P37">
         <v>0.5</v>
@@ -12400,28 +12406,28 @@
         <v>1</v>
       </c>
       <c r="AE37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH37" t="s">
         <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL37">
         <v>0</v>
       </c>
       <c r="AM37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN37" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -12450,34 +12456,34 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P38">
         <v>0.5</v>
@@ -12510,28 +12516,28 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH38" t="s">
         <v>0</v>
       </c>
       <c r="AI38" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN38" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -12560,34 +12566,34 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P39">
         <v>0.5</v>
@@ -12620,28 +12626,28 @@
         <v>1</v>
       </c>
       <c r="AE39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH39" t="s">
         <v>0</v>
       </c>
       <c r="AI39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL39">
         <v>0</v>
       </c>
       <c r="AM39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -12670,34 +12676,34 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P40">
         <v>0.5</v>
@@ -12730,28 +12736,28 @@
         <v>1</v>
       </c>
       <c r="AE40" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH40" t="s">
         <v>0</v>
       </c>
       <c r="AI40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -12780,34 +12786,34 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41">
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -12840,28 +12846,28 @@
         <v>1</v>
       </c>
       <c r="AE41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH41" t="s">
         <v>0</v>
       </c>
       <c r="AI41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL41">
         <v>0</v>
       </c>
       <c r="AM41" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN41" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -12890,34 +12896,34 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42">
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P42">
         <v>0.5</v>
@@ -12950,28 +12956,28 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH42" t="s">
         <v>0</v>
       </c>
       <c r="AI42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -13000,34 +13006,34 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43">
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P43">
         <v>0.5</v>
@@ -13060,28 +13066,28 @@
         <v>1</v>
       </c>
       <c r="AE43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH43" t="s">
         <v>0</v>
       </c>
       <c r="AI43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL43">
         <v>0</v>
       </c>
       <c r="AM43" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -13110,34 +13116,34 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -13170,28 +13176,28 @@
         <v>1</v>
       </c>
       <c r="AE44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH44" t="s">
         <v>0</v>
       </c>
       <c r="AI44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL44">
         <v>0</v>
       </c>
       <c r="AM44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN44" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO44">
         <v>0</v>
@@ -13220,34 +13226,34 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P45">
         <v>0.5</v>
@@ -13280,28 +13286,28 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH45" t="s">
         <v>0</v>
       </c>
       <c r="AI45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL45">
         <v>0</v>
       </c>
       <c r="AM45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -13330,34 +13336,34 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -13390,28 +13396,28 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH46" t="s">
         <v>0</v>
       </c>
       <c r="AI46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN46" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -13440,34 +13446,34 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P47">
         <v>0.5</v>
@@ -13500,28 +13506,28 @@
         <v>1</v>
       </c>
       <c r="AE47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH47" t="s">
         <v>0</v>
       </c>
       <c r="AI47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -13550,34 +13556,34 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P48">
         <v>0.5</v>
@@ -13610,28 +13616,28 @@
         <v>1</v>
       </c>
       <c r="AE48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH48" t="s">
         <v>0</v>
       </c>
       <c r="AI48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL48">
         <v>0</v>
       </c>
       <c r="AM48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO48">
         <v>0</v>
@@ -13660,34 +13666,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P49">
         <v>0.5</v>
@@ -13720,28 +13726,28 @@
         <v>1</v>
       </c>
       <c r="AE49" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG49" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH49" t="s">
         <v>0</v>
       </c>
       <c r="AI49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL49">
         <v>0</v>
       </c>
       <c r="AM49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -13770,34 +13776,34 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P50">
         <v>0.5</v>
@@ -13830,28 +13836,28 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG50" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH50" t="s">
         <v>0</v>
       </c>
       <c r="AI50" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK50" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL50">
         <v>0</v>
       </c>
       <c r="AM50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -13880,34 +13886,34 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -13940,28 +13946,28 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG51" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH51" t="s">
         <v>0</v>
       </c>
       <c r="AI51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK51" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL51">
         <v>0</v>
       </c>
       <c r="AM51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -13990,34 +13996,34 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P52">
         <v>0.5</v>
@@ -14050,28 +14056,28 @@
         <v>1</v>
       </c>
       <c r="AE52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH52" t="s">
         <v>0</v>
       </c>
       <c r="AI52" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL52">
         <v>0</v>
       </c>
       <c r="AM52" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -14100,34 +14106,34 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P53">
         <v>0.5</v>
@@ -14160,28 +14166,28 @@
         <v>1</v>
       </c>
       <c r="AE53" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH53" t="s">
         <v>0</v>
       </c>
       <c r="AI53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL53">
         <v>0</v>
       </c>
       <c r="AM53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN53" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -14210,34 +14216,34 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54">
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P54">
         <v>0.5</v>
@@ -14270,28 +14276,28 @@
         <v>1</v>
       </c>
       <c r="AE54" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH54" t="s">
         <v>0</v>
       </c>
       <c r="AI54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL54">
         <v>0</v>
       </c>
       <c r="AM54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -14320,34 +14326,34 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -14380,28 +14386,28 @@
         <v>1</v>
       </c>
       <c r="AE55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG55" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH55" t="s">
         <v>0</v>
       </c>
       <c r="AI55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK55" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL55">
         <v>0</v>
       </c>
       <c r="AM55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -14430,34 +14436,34 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
       <c r="M56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P56">
         <v>0.5</v>
@@ -14490,28 +14496,28 @@
         <v>1</v>
       </c>
       <c r="AE56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG56" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH56" t="s">
         <v>0</v>
       </c>
       <c r="AI56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK56" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL56">
         <v>0</v>
       </c>
       <c r="AM56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -14540,34 +14546,34 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L57">
         <v>0.5</v>
       </c>
       <c r="M57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P57">
         <v>0.5</v>
@@ -14600,28 +14606,28 @@
         <v>1</v>
       </c>
       <c r="AE57" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH57" t="s">
         <v>0</v>
       </c>
       <c r="AI57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK57" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL57">
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN57" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -14650,34 +14656,34 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58">
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L58">
         <v>0.5</v>
       </c>
       <c r="M58" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P58">
         <v>0.5</v>
@@ -14710,28 +14716,28 @@
         <v>1</v>
       </c>
       <c r="AE58" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG58" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH58" t="s">
         <v>0</v>
       </c>
       <c r="AI58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL58">
         <v>0</v>
       </c>
       <c r="AM58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN58" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -14760,34 +14766,34 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L59">
         <v>0.5</v>
       </c>
       <c r="M59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P59">
         <v>0.5</v>
@@ -14820,28 +14826,28 @@
         <v>1</v>
       </c>
       <c r="AE59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG59" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH59" t="s">
         <v>0</v>
       </c>
       <c r="AI59" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK59" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL59">
         <v>0</v>
       </c>
       <c r="AM59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO59">
         <v>0</v>
@@ -14870,34 +14876,34 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L60">
         <v>0.5</v>
       </c>
       <c r="M60" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P60">
         <v>0.5</v>
@@ -14930,28 +14936,28 @@
         <v>1</v>
       </c>
       <c r="AE60" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH60" t="s">
         <v>0</v>
       </c>
       <c r="AI60" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK60" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL60">
         <v>0</v>
       </c>
       <c r="AM60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN60" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -14980,34 +14986,34 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61">
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L61">
         <v>0.5</v>
       </c>
       <c r="M61" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P61">
         <v>0.5</v>
@@ -15040,28 +15046,28 @@
         <v>1</v>
       </c>
       <c r="AE61" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG61" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH61" t="s">
         <v>0</v>
       </c>
       <c r="AI61" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL61">
         <v>0</v>
       </c>
       <c r="AM61" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -15090,34 +15096,34 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L62">
         <v>0.5</v>
       </c>
       <c r="M62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P62">
         <v>0.5</v>
@@ -15150,28 +15156,28 @@
         <v>1</v>
       </c>
       <c r="AE62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH62" t="s">
         <v>0</v>
       </c>
       <c r="AI62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK62" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL62">
         <v>0</v>
       </c>
       <c r="AM62" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN62" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -15200,34 +15206,34 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63">
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L63">
         <v>0.5</v>
       </c>
       <c r="M63" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P63">
         <v>0.5</v>
@@ -15260,28 +15266,28 @@
         <v>1</v>
       </c>
       <c r="AE63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH63" t="s">
         <v>0</v>
       </c>
       <c r="AI63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL63">
         <v>0</v>
       </c>
       <c r="AM63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO63">
         <v>0</v>
@@ -15310,34 +15316,34 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64">
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L64">
         <v>0.5</v>
       </c>
       <c r="M64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P64">
         <v>0.5</v>
@@ -15370,28 +15376,28 @@
         <v>1</v>
       </c>
       <c r="AE64" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH64" t="s">
         <v>0</v>
       </c>
       <c r="AI64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL64">
         <v>0</v>
       </c>
       <c r="AM64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO64">
         <v>0</v>
@@ -15420,34 +15426,34 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L65">
         <v>0.5</v>
       </c>
       <c r="M65" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P65">
         <v>0.5</v>
@@ -15480,28 +15486,28 @@
         <v>1</v>
       </c>
       <c r="AE65" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG65" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH65" t="s">
         <v>0</v>
       </c>
       <c r="AI65" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL65">
         <v>0</v>
       </c>
       <c r="AM65" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN65" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -15530,34 +15536,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66">
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L66">
         <v>0.5</v>
       </c>
       <c r="M66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P66">
         <v>0.5</v>
@@ -15590,28 +15596,28 @@
         <v>1</v>
       </c>
       <c r="AE66" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH66" t="s">
         <v>0</v>
       </c>
       <c r="AI66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK66" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL66">
         <v>0</v>
       </c>
       <c r="AM66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO66">
         <v>0</v>
@@ -15640,34 +15646,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P67">
         <v>0.5</v>
@@ -15700,28 +15706,28 @@
         <v>1</v>
       </c>
       <c r="AE67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH67" t="s">
         <v>0</v>
       </c>
       <c r="AI67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK67" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL67">
         <v>0</v>
       </c>
       <c r="AM67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -15750,34 +15756,34 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L68">
         <v>0.5</v>
       </c>
       <c r="M68" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P68">
         <v>0.5</v>
@@ -15810,28 +15816,28 @@
         <v>1</v>
       </c>
       <c r="AE68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH68" t="s">
         <v>0</v>
       </c>
       <c r="AI68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL68">
         <v>0</v>
       </c>
       <c r="AM68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -15860,34 +15866,34 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L69">
         <v>0.5</v>
       </c>
       <c r="M69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P69">
         <v>0.5</v>
@@ -15920,28 +15926,28 @@
         <v>1</v>
       </c>
       <c r="AE69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH69" t="s">
         <v>0</v>
       </c>
       <c r="AI69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL69">
         <v>0</v>
       </c>
       <c r="AM69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -15970,34 +15976,34 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70">
         <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L70">
         <v>0.5</v>
       </c>
       <c r="M70" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P70">
         <v>0.5</v>
@@ -16030,28 +16036,28 @@
         <v>1</v>
       </c>
       <c r="AE70" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH70" t="s">
         <v>0</v>
       </c>
       <c r="AI70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL70">
         <v>0</v>
       </c>
       <c r="AM70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -16080,34 +16086,34 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71">
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P71">
         <v>0.5</v>
@@ -16140,28 +16146,28 @@
         <v>1</v>
       </c>
       <c r="AE71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH71" t="s">
         <v>0</v>
       </c>
       <c r="AI71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL71">
         <v>0</v>
       </c>
       <c r="AM71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -16190,34 +16196,34 @@
         <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72">
         <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L72">
         <v>0.5</v>
       </c>
       <c r="M72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P72">
         <v>0.5</v>
@@ -16250,28 +16256,28 @@
         <v>1</v>
       </c>
       <c r="AE72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH72" t="s">
         <v>0</v>
       </c>
       <c r="AI72" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL72">
         <v>0</v>
       </c>
       <c r="AM72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -16300,34 +16306,34 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L73">
         <v>0.5</v>
       </c>
       <c r="M73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P73">
         <v>0.5</v>
@@ -16360,28 +16366,28 @@
         <v>1</v>
       </c>
       <c r="AE73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH73" t="s">
         <v>0</v>
       </c>
       <c r="AI73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK73" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL73">
         <v>0</v>
       </c>
       <c r="AM73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -16410,34 +16416,34 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P74">
         <v>0.5</v>
@@ -16470,28 +16476,28 @@
         <v>1</v>
       </c>
       <c r="AE74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH74" t="s">
         <v>0</v>
       </c>
       <c r="AI74" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL74">
         <v>0</v>
       </c>
       <c r="AM74" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -16520,34 +16526,34 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L75">
         <v>0.5</v>
       </c>
       <c r="M75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P75">
         <v>0.5</v>
@@ -16580,28 +16586,28 @@
         <v>1</v>
       </c>
       <c r="AE75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH75" t="s">
         <v>0</v>
       </c>
       <c r="AI75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK75" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL75">
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN75" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO75">
         <v>0</v>
